--- a/biology/Botanique/Macodes/Macodes.xlsx
+++ b/biology/Botanique/Macodes/Macodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macodes est un genre de plantes de la famille des Orchidaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (4 octobre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (4 octobre 2021) :
 Macodes angustilabris J.J. Sm.
 Macodes celebica Rolfe
 Macodes cominsii (Rolfe) Rolfe
@@ -525,7 +539,7 @@
 Macodes petola (Blume) Lindl.
 Macodes pulcherrima Schltr.
 Macodes sanderiana (Kraenzl.) Rolfe
-Selon World Checklist of Selected Plant Families (WCSP)  (4 octobre 2021)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (4 octobre 2021) :
 Macodes angustilabris J.J.Sm., Bull. Jard. Bot. Buitenzorg, sér. 3 (1931)
 Macodes celebica Rolfe (1899)
 Macodes cominsii (Rolfe) Rolfe (1911)
@@ -537,12 +551,12 @@
 Macodes petola (Blume) Lindl. (1840)
 Macodes pulcherrima Schltr. (1911)
 Macodes sanderiana (Kraenzl.) Rolfe (1896)
-Selon NCBI  (4 octobre 2021)[3] :
+Selon NCBI  (4 octobre 2021) :
 Macodes dendrophila Schltr.
 Macodes lowii (E.J.Lowe &amp; W.Howard) J.J.Wood
 Macodes petola (Blume) Lindl.
 Macodes sanderiana (Kraenzl.) Rolfe
-Selon The Plant List            (4 octobre 2021)[4] :
+Selon The Plant List            (4 octobre 2021) :
 Macodes angustilabris J.J.Sm.
 Macodes celebica Rolfe
 Macodes cominsii (Rolfe) Rolfe
@@ -554,7 +568,7 @@
 Macodes petola (Blume) Lindl.
 Macodes pulcherrima Schltr.
 Macodes sanderiana (Kraenzl.) Rolfe
-Selon Tropicos                                           (4 octobre 2021)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 octobre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Macodes angustilabris J.J. Sm.
 Macodes argyroneura Rolfe
 Macodes atra J.J. Sm.
